--- a/data_year/zb/固定资产投资和房地产/按用途分商品房销售额.xlsx
+++ b/data_year/zb/固定资产投资和房地产/按用途分商品房销售额.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,524 +468,320 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3228.6046</v>
+        <v>44120.6524</v>
       </c>
       <c r="C2" t="n">
-        <v>42.9848</v>
+        <v>1026.0674</v>
       </c>
       <c r="D2" t="n">
-        <v>274.7459</v>
+        <v>4613.1111</v>
       </c>
       <c r="E2" t="n">
-        <v>207.6259</v>
+        <v>2155.7063</v>
       </c>
       <c r="F2" t="n">
-        <v>456.227</v>
+        <v>5418.8156</v>
       </c>
       <c r="G2" t="n">
-        <v>3935.4423</v>
+        <v>52721.2417</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4021.1543</v>
+        <v>48198.322</v>
       </c>
       <c r="C3" t="n">
-        <v>55.7969</v>
+        <v>1239.8757</v>
       </c>
       <c r="D3" t="n">
-        <v>381.8443</v>
+        <v>4100.6567</v>
       </c>
       <c r="E3" t="n">
-        <v>230.5635</v>
+        <v>2471.5816</v>
       </c>
       <c r="F3" t="n">
-        <v>555.2383</v>
+        <v>6679.0787</v>
       </c>
       <c r="G3" t="n">
-        <v>4862.7517</v>
+        <v>58588.858</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4957.8501</v>
+        <v>53467.182</v>
       </c>
       <c r="C4" t="n">
-        <v>66.8651</v>
+        <v>1215.5969</v>
       </c>
       <c r="D4" t="n">
-        <v>515.5663</v>
+        <v>3983.5632</v>
       </c>
       <c r="E4" t="n">
-        <v>233.6572</v>
+        <v>2773.4349</v>
       </c>
       <c r="F4" t="n">
-        <v>773.9689</v>
+        <v>6999.5718</v>
       </c>
       <c r="G4" t="n">
-        <v>6032.3413</v>
+        <v>64455.7856</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>6543.4492</v>
+        <v>67694.93670000001</v>
       </c>
       <c r="C5" t="n">
-        <v>106.4782</v>
+        <v>1705.5197</v>
       </c>
       <c r="D5" t="n">
-        <v>600.9049</v>
+        <v>4573.1851</v>
       </c>
       <c r="E5" t="n">
-        <v>264.5314</v>
+        <v>3747.3497</v>
       </c>
       <c r="F5" t="n">
-        <v>1041.2039</v>
+        <v>8280.4781</v>
       </c>
       <c r="G5" t="n">
-        <v>7955.6627</v>
+        <v>81428.28419999999</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8619.3667</v>
+        <v>62410.9534</v>
       </c>
       <c r="C6" t="n">
-        <v>143.4802</v>
+        <v>2007.9069</v>
       </c>
       <c r="D6" t="n">
-        <v>882.339683137331</v>
+        <v>3950.8568</v>
       </c>
       <c r="E6" t="n">
-        <v>383.32</v>
+        <v>2962.9279</v>
       </c>
       <c r="F6" t="n">
-        <v>1229.54</v>
+        <v>8910.621499999999</v>
       </c>
       <c r="G6" t="n">
-        <v>10375.7069</v>
+        <v>76292.4097</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>14563.7616</v>
+        <v>72769.8199</v>
       </c>
       <c r="C7" t="n">
-        <v>203.9351</v>
+        <v>1896.8101</v>
       </c>
       <c r="D7" t="n">
-        <v>1644.2658</v>
+        <v>5285.9973</v>
       </c>
       <c r="E7" t="n">
-        <v>758.8685</v>
+        <v>3761.4233</v>
       </c>
       <c r="F7" t="n">
-        <v>2049.5673</v>
+        <v>8852.7842</v>
       </c>
       <c r="G7" t="n">
-        <v>17576.1325</v>
+        <v>87280.83749999999</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>17287.807</v>
+        <v>99064.1734</v>
       </c>
       <c r="C8" t="n">
-        <v>270.949</v>
+        <v>2498.2595</v>
       </c>
       <c r="D8" t="n">
-        <v>2418.2797</v>
+        <v>7112.4209</v>
       </c>
       <c r="E8" t="n">
-        <v>991.3327</v>
+        <v>5483.812</v>
       </c>
       <c r="F8" t="n">
-        <v>2275.8744</v>
+        <v>10580.8026</v>
       </c>
       <c r="G8" t="n">
-        <v>20825.9631</v>
+        <v>117627.0475</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>25565.8111</v>
+        <v>110239.5075</v>
       </c>
       <c r="C9" t="n">
-        <v>371.6762</v>
+        <v>3767.7288</v>
       </c>
       <c r="D9" t="n">
-        <v>3422.8072</v>
+        <v>7098.433</v>
       </c>
       <c r="E9" t="n">
-        <v>1269.9134</v>
+        <v>6441.3587</v>
       </c>
       <c r="F9" t="n">
-        <v>2681.7182</v>
+        <v>13252.7114</v>
       </c>
       <c r="G9" t="n">
-        <v>29889.1189</v>
+        <v>133701.3064</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>21196.0034</v>
+        <v>126374.0752</v>
       </c>
       <c r="C10" t="n">
-        <v>426.9731</v>
+        <v>3951.8654</v>
       </c>
       <c r="D10" t="n">
-        <v>2235.0735</v>
+        <v>7179.8976</v>
       </c>
       <c r="E10" t="n">
-        <v>969.3567</v>
+        <v>6278.0096</v>
       </c>
       <c r="F10" t="n">
-        <v>2475.8498</v>
+        <v>13010.4672</v>
       </c>
       <c r="G10" t="n">
-        <v>25068.183</v>
+        <v>149614.4174</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>38432.8951</v>
+        <v>139439.9683</v>
       </c>
       <c r="C11" t="n">
-        <v>623.1996</v>
+        <v>3814.8037</v>
       </c>
       <c r="D11" t="n">
-        <v>4469.7602</v>
+        <v>6993.0643</v>
       </c>
       <c r="E11" t="n">
-        <v>1638.4053</v>
+        <v>5328.9632</v>
       </c>
       <c r="F11" t="n">
-        <v>3660.6695</v>
+        <v>11141.3871</v>
       </c>
       <c r="G11" t="n">
-        <v>44355.1695</v>
+        <v>159725.1223</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>44120.6524</v>
+        <v>154566.9552</v>
       </c>
       <c r="C12" t="n">
-        <v>1026.0674</v>
-      </c>
-      <c r="D12" t="n">
-        <v>4613.1111</v>
-      </c>
+        <v>4109.32</v>
+      </c>
+      <c r="D12" t="inlineStr"/>
       <c r="E12" t="n">
-        <v>2155.7063</v>
+        <v>5047.4697</v>
       </c>
       <c r="F12" t="n">
-        <v>5418.8156</v>
+        <v>9888.914000000001</v>
       </c>
       <c r="G12" t="n">
-        <v>52721.2417</v>
+        <v>173612.6589</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>48198.322</v>
+        <v>162729.9011</v>
       </c>
       <c r="C13" t="n">
-        <v>1239.8757</v>
-      </c>
-      <c r="D13" t="n">
-        <v>4100.6567</v>
-      </c>
+        <v>4806.22520000002</v>
+      </c>
+      <c r="D13" t="inlineStr"/>
       <c r="E13" t="n">
-        <v>2471.5816</v>
+        <v>4701.4626</v>
       </c>
       <c r="F13" t="n">
-        <v>6679.0787</v>
+        <v>9692.360500000001</v>
       </c>
       <c r="G13" t="n">
-        <v>58588.858</v>
+        <v>181929.9494</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
+          <t>2022年</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>53467.182</v>
+        <v>116746.9716</v>
       </c>
       <c r="C14" t="n">
-        <v>1215.5969</v>
-      </c>
-      <c r="D14" t="n">
-        <v>3983.5632</v>
-      </c>
+        <v>3905.8586</v>
+      </c>
+      <c r="D14" t="inlineStr"/>
       <c r="E14" t="n">
-        <v>2773.4349</v>
+        <v>4527.9139</v>
       </c>
       <c r="F14" t="n">
-        <v>6999.5718</v>
+        <v>8127.0937</v>
       </c>
       <c r="G14" t="n">
-        <v>64455.7856</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>67694.93670000001</v>
-      </c>
-      <c r="C15" t="n">
-        <v>1705.5197</v>
-      </c>
-      <c r="D15" t="n">
-        <v>4573.1851</v>
-      </c>
-      <c r="E15" t="n">
-        <v>3747.3497</v>
-      </c>
-      <c r="F15" t="n">
-        <v>8280.4781</v>
-      </c>
-      <c r="G15" t="n">
-        <v>81428.28419999999</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>62410.9534</v>
-      </c>
-      <c r="C16" t="n">
-        <v>2007.9069</v>
-      </c>
-      <c r="D16" t="n">
-        <v>3950.8568</v>
-      </c>
-      <c r="E16" t="n">
-        <v>2962.9279</v>
-      </c>
-      <c r="F16" t="n">
-        <v>8910.621499999999</v>
-      </c>
-      <c r="G16" t="n">
-        <v>76292.4097</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>72769.8199</v>
-      </c>
-      <c r="C17" t="n">
-        <v>1896.8101</v>
-      </c>
-      <c r="D17" t="n">
-        <v>5285.9973</v>
-      </c>
-      <c r="E17" t="n">
-        <v>3761.4233</v>
-      </c>
-      <c r="F17" t="n">
-        <v>8852.7842</v>
-      </c>
-      <c r="G17" t="n">
-        <v>87280.83749999999</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>99064.1734</v>
-      </c>
-      <c r="C18" t="n">
-        <v>2498.2595</v>
-      </c>
-      <c r="D18" t="n">
-        <v>7112.4209</v>
-      </c>
-      <c r="E18" t="n">
-        <v>5483.812</v>
-      </c>
-      <c r="F18" t="n">
-        <v>10580.8026</v>
-      </c>
-      <c r="G18" t="n">
-        <v>117627.0475</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>110239.5075</v>
-      </c>
-      <c r="C19" t="n">
-        <v>3767.7288</v>
-      </c>
-      <c r="D19" t="n">
-        <v>7098.433</v>
-      </c>
-      <c r="E19" t="n">
-        <v>6441.3587</v>
-      </c>
-      <c r="F19" t="n">
-        <v>13252.7114</v>
-      </c>
-      <c r="G19" t="n">
-        <v>133701.3064</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>126374.0752</v>
-      </c>
-      <c r="C20" t="n">
-        <v>3951.8654</v>
-      </c>
-      <c r="D20" t="n">
-        <v>7179.8976</v>
-      </c>
-      <c r="E20" t="n">
-        <v>6278.0096</v>
-      </c>
-      <c r="F20" t="n">
-        <v>13010.4672</v>
-      </c>
-      <c r="G20" t="n">
-        <v>149614.4174</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>139439.9683</v>
-      </c>
-      <c r="C21" t="n">
-        <v>3814.8037</v>
-      </c>
-      <c r="D21" t="n">
-        <v>6993.0643</v>
-      </c>
-      <c r="E21" t="n">
-        <v>5328.9632</v>
-      </c>
-      <c r="F21" t="n">
-        <v>11141.3871</v>
-      </c>
-      <c r="G21" t="n">
-        <v>159725.1223</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>154566.9552</v>
-      </c>
-      <c r="C22" t="n">
-        <v>4109.32</v>
-      </c>
-      <c r="D22" t="inlineStr"/>
-      <c r="E22" t="n">
-        <v>5047.4697</v>
-      </c>
-      <c r="F22" t="n">
-        <v>9888.914000000001</v>
-      </c>
-      <c r="G22" t="n">
-        <v>173612.6589</v>
+        <v>133307.8378</v>
       </c>
     </row>
   </sheetData>
